--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3452,28 +3452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>629.0343199203739</v>
+        <v>746.395089938069</v>
       </c>
       <c r="AB2" t="n">
-        <v>860.6725075506815</v>
+        <v>1021.250690680649</v>
       </c>
       <c r="AC2" t="n">
-        <v>778.5311313914948</v>
+        <v>923.7839580964335</v>
       </c>
       <c r="AD2" t="n">
-        <v>629034.319920374</v>
+        <v>746395.089938069</v>
       </c>
       <c r="AE2" t="n">
-        <v>860672.5075506815</v>
+        <v>1021250.690680649</v>
       </c>
       <c r="AF2" t="n">
         <v>6.720805704165097e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.35416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>778531.1313914948</v>
+        <v>923783.9580964334</v>
       </c>
     </row>
     <row r="3">
@@ -3558,28 +3558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>260.5092936064439</v>
+        <v>328.9947770801015</v>
       </c>
       <c r="AB3" t="n">
-        <v>356.4403083712463</v>
+        <v>450.1451682261981</v>
       </c>
       <c r="AC3" t="n">
-        <v>322.4221456074085</v>
+        <v>407.1839451534005</v>
       </c>
       <c r="AD3" t="n">
-        <v>260509.2936064439</v>
+        <v>328994.7770801015</v>
       </c>
       <c r="AE3" t="n">
-        <v>356440.3083712463</v>
+        <v>450145.1682261981</v>
       </c>
       <c r="AF3" t="n">
         <v>1.225354834415932e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.80833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>322422.1456074085</v>
+        <v>407183.9451534005</v>
       </c>
     </row>
     <row r="4">
@@ -3664,28 +3664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>219.7761948054086</v>
+        <v>268.6856467682294</v>
       </c>
       <c r="AB4" t="n">
-        <v>300.707485574037</v>
+        <v>367.6275554824446</v>
       </c>
       <c r="AC4" t="n">
-        <v>272.0083851965464</v>
+        <v>332.5416975557141</v>
       </c>
       <c r="AD4" t="n">
-        <v>219776.1948054085</v>
+        <v>268685.6467682294</v>
       </c>
       <c r="AE4" t="n">
-        <v>300707.485574037</v>
+        <v>367627.5554824446</v>
       </c>
       <c r="AF4" t="n">
         <v>1.422624532166816e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.03333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>272008.3851965464</v>
+        <v>332541.6975557141</v>
       </c>
     </row>
     <row r="5">
@@ -3770,28 +3770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>197.2399294036597</v>
+        <v>246.1152159476964</v>
       </c>
       <c r="AB5" t="n">
-        <v>269.8723730215195</v>
+        <v>336.7456962965005</v>
       </c>
       <c r="AC5" t="n">
-        <v>244.1161325086791</v>
+        <v>304.6071596676159</v>
       </c>
       <c r="AD5" t="n">
-        <v>197239.9294036597</v>
+        <v>246115.2159476964</v>
       </c>
       <c r="AE5" t="n">
-        <v>269872.3730215195</v>
+        <v>336745.6962965004</v>
       </c>
       <c r="AF5" t="n">
         <v>1.527794857948841e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.275</v>
       </c>
       <c r="AH5" t="n">
-        <v>244116.1325086791</v>
+        <v>304607.1596676158</v>
       </c>
     </row>
     <row r="6">
@@ -3876,28 +3876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>180.5495883615563</v>
+        <v>229.4921947132974</v>
       </c>
       <c r="AB6" t="n">
-        <v>247.0359120818455</v>
+        <v>314.001345287668</v>
       </c>
       <c r="AC6" t="n">
-        <v>223.4591513499061</v>
+        <v>284.0334975971619</v>
       </c>
       <c r="AD6" t="n">
-        <v>180549.5883615563</v>
+        <v>229492.1947132974</v>
       </c>
       <c r="AE6" t="n">
-        <v>247035.9120818455</v>
+        <v>314001.3452876679</v>
       </c>
       <c r="AF6" t="n">
         <v>1.588290396346381e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.883333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>223459.1513499061</v>
+        <v>284033.4975971619</v>
       </c>
     </row>
     <row r="7">
@@ -3982,28 +3982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>175.4519317842599</v>
+        <v>224.394538136001</v>
       </c>
       <c r="AB7" t="n">
-        <v>240.061073460056</v>
+        <v>307.0265066658785</v>
       </c>
       <c r="AC7" t="n">
-        <v>217.1499815369305</v>
+        <v>277.7243277841864</v>
       </c>
       <c r="AD7" t="n">
-        <v>175451.9317842599</v>
+        <v>224394.538136001</v>
       </c>
       <c r="AE7" t="n">
-        <v>240061.073460056</v>
+        <v>307026.5066658785</v>
       </c>
       <c r="AF7" t="n">
         <v>1.635187622563653e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH7" t="n">
-        <v>217149.9815369305</v>
+        <v>277724.3277841863</v>
       </c>
     </row>
     <row r="8">
@@ -4088,28 +4088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>171.7614644305086</v>
+        <v>220.6025855557644</v>
       </c>
       <c r="AB8" t="n">
-        <v>235.011613214727</v>
+        <v>301.8381898564602</v>
       </c>
       <c r="AC8" t="n">
-        <v>212.5824346904521</v>
+        <v>273.031176649209</v>
       </c>
       <c r="AD8" t="n">
-        <v>171761.4644305086</v>
+        <v>220602.5855557644</v>
       </c>
       <c r="AE8" t="n">
-        <v>235011.613214727</v>
+        <v>301838.1898564602</v>
       </c>
       <c r="AF8" t="n">
         <v>1.666452440041833e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>212582.4346904522</v>
+        <v>273031.176649209</v>
       </c>
     </row>
     <row r="9">
@@ -4194,28 +4194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>168.7367775257014</v>
+        <v>217.5778986509573</v>
       </c>
       <c r="AB9" t="n">
-        <v>230.8731031518034</v>
+        <v>297.6996797935366</v>
       </c>
       <c r="AC9" t="n">
-        <v>208.8388982194973</v>
+        <v>269.287640178254</v>
       </c>
       <c r="AD9" t="n">
-        <v>168736.7775257014</v>
+        <v>217577.8986509573</v>
       </c>
       <c r="AE9" t="n">
-        <v>230873.1031518034</v>
+        <v>297699.6797935366</v>
       </c>
       <c r="AF9" t="n">
         <v>1.689995224287452e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.2875</v>
       </c>
       <c r="AH9" t="n">
-        <v>208838.8982194973</v>
+        <v>269287.640178254</v>
       </c>
     </row>
     <row r="10">
@@ -4300,28 +4300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>165.7644298194527</v>
+        <v>204.885360511922</v>
       </c>
       <c r="AB10" t="n">
-        <v>226.8062058893899</v>
+        <v>280.3331891564542</v>
       </c>
       <c r="AC10" t="n">
-        <v>205.1601399238811</v>
+        <v>253.5785830335466</v>
       </c>
       <c r="AD10" t="n">
-        <v>165764.4298194528</v>
+        <v>204885.360511922</v>
       </c>
       <c r="AE10" t="n">
-        <v>226806.2058893899</v>
+        <v>280333.1891564542</v>
       </c>
       <c r="AF10" t="n">
         <v>1.71165458579342e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.170833333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>205160.1399238811</v>
+        <v>253578.5830335466</v>
       </c>
     </row>
     <row r="11">
@@ -4406,28 +4406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>164.3133309523018</v>
+        <v>203.4342616447711</v>
       </c>
       <c r="AB11" t="n">
-        <v>224.8207484013911</v>
+        <v>278.3477316684555</v>
       </c>
       <c r="AC11" t="n">
-        <v>203.3641717119292</v>
+        <v>251.7826148215947</v>
       </c>
       <c r="AD11" t="n">
-        <v>164313.3309523018</v>
+        <v>203434.2616447711</v>
       </c>
       <c r="AE11" t="n">
-        <v>224820.7484013911</v>
+        <v>278347.7316684555</v>
       </c>
       <c r="AF11" t="n">
         <v>1.717719207015091e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.137500000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>203364.1717119292</v>
+        <v>251782.6148215947</v>
       </c>
     </row>
     <row r="12">
@@ -4512,28 +4512,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>164.0329626990201</v>
+        <v>203.1538933914893</v>
       </c>
       <c r="AB12" t="n">
-        <v>224.4371361882769</v>
+        <v>277.9641194553412</v>
       </c>
       <c r="AC12" t="n">
-        <v>203.0171709100314</v>
+        <v>251.4356140196969</v>
       </c>
       <c r="AD12" t="n">
-        <v>164032.9626990201</v>
+        <v>203153.8933914893</v>
       </c>
       <c r="AE12" t="n">
-        <v>224437.1361882769</v>
+        <v>277964.1194553412</v>
       </c>
       <c r="AF12" t="n">
         <v>1.723633154417591e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.104166666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>203017.1709100314</v>
+        <v>251435.6140196969</v>
       </c>
     </row>
   </sheetData>
@@ -4809,28 +4809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>422.9334430450507</v>
+        <v>519.704769127351</v>
       </c>
       <c r="AB2" t="n">
-        <v>578.6761952808952</v>
+        <v>711.0829928762968</v>
       </c>
       <c r="AC2" t="n">
-        <v>523.4481513804268</v>
+        <v>643.2182300474309</v>
       </c>
       <c r="AD2" t="n">
-        <v>422933.4430450507</v>
+        <v>519704.7691273511</v>
       </c>
       <c r="AE2" t="n">
-        <v>578676.1952808952</v>
+        <v>711082.9928762967</v>
       </c>
       <c r="AF2" t="n">
         <v>9.257163969622529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.55</v>
       </c>
       <c r="AH2" t="n">
-        <v>523448.1513804268</v>
+        <v>643218.2300474308</v>
       </c>
     </row>
     <row r="3">
@@ -4915,28 +4915,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.1858540748533</v>
+        <v>278.2691489755047</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.2679994593825</v>
+        <v>380.7401259967168</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.515404423361</v>
+        <v>344.4028227437124</v>
       </c>
       <c r="AD3" t="n">
-        <v>220185.8540748533</v>
+        <v>278269.1489755047</v>
       </c>
       <c r="AE3" t="n">
-        <v>301267.9994593825</v>
+        <v>380740.1259967168</v>
       </c>
       <c r="AF3" t="n">
         <v>1.462351636875366e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.74166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>272515.4044233609</v>
+        <v>344402.8227437124</v>
       </c>
     </row>
     <row r="4">
@@ -5021,28 +5021,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>189.3072338356893</v>
+        <v>237.6426597785248</v>
       </c>
       <c r="AB4" t="n">
-        <v>259.0185089795987</v>
+        <v>325.1531711630478</v>
       </c>
       <c r="AC4" t="n">
-        <v>234.2981460174219</v>
+        <v>294.121008862685</v>
       </c>
       <c r="AD4" t="n">
-        <v>189307.2338356893</v>
+        <v>237642.6597785248</v>
       </c>
       <c r="AE4" t="n">
-        <v>259018.5089795986</v>
+        <v>325153.1711630478</v>
       </c>
       <c r="AF4" t="n">
         <v>1.651905052264031e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.39583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>234298.1460174219</v>
+        <v>294121.008862685</v>
       </c>
     </row>
     <row r="5">
@@ -5127,28 +5127,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>170.0762466898113</v>
+        <v>218.4789924403512</v>
       </c>
       <c r="AB5" t="n">
-        <v>232.7058239553466</v>
+        <v>298.9325960696372</v>
       </c>
       <c r="AC5" t="n">
-        <v>210.4967067217906</v>
+        <v>270.4028886553729</v>
       </c>
       <c r="AD5" t="n">
-        <v>170076.2466898113</v>
+        <v>218478.9924403512</v>
       </c>
       <c r="AE5" t="n">
-        <v>232705.8239553466</v>
+        <v>298932.5960696372</v>
       </c>
       <c r="AF5" t="n">
         <v>1.752060477224773e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.799999999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>210496.7067217907</v>
+        <v>270402.8886553728</v>
       </c>
     </row>
     <row r="6">
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>164.3248495887113</v>
+        <v>212.626110112766</v>
       </c>
       <c r="AB6" t="n">
-        <v>224.836508707893</v>
+        <v>290.9244242580943</v>
       </c>
       <c r="AC6" t="n">
-        <v>203.3784278768983</v>
+        <v>263.1590055219814</v>
       </c>
       <c r="AD6" t="n">
-        <v>164324.8495887113</v>
+        <v>212626.110112766</v>
       </c>
       <c r="AE6" t="n">
-        <v>224836.508707893</v>
+        <v>290924.4242580943</v>
       </c>
       <c r="AF6" t="n">
         <v>1.814090894741612e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.466666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>203378.4278768983</v>
+        <v>263159.0055219814</v>
       </c>
     </row>
     <row r="7">
@@ -5339,28 +5339,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>160.1828272170271</v>
+        <v>208.4840877410818</v>
       </c>
       <c r="AB7" t="n">
-        <v>219.1692109658272</v>
+        <v>285.2571265160285</v>
       </c>
       <c r="AC7" t="n">
-        <v>198.252009077231</v>
+        <v>258.0325867223142</v>
       </c>
       <c r="AD7" t="n">
-        <v>160182.8272170271</v>
+        <v>208484.0877410818</v>
       </c>
       <c r="AE7" t="n">
-        <v>219169.2109658272</v>
+        <v>285257.1265160285</v>
       </c>
       <c r="AF7" t="n">
         <v>1.851020631681869e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.279166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>198252.009077231</v>
+        <v>258032.5867223142</v>
       </c>
     </row>
     <row r="8">
@@ -5445,28 +5445,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>157.3509611126169</v>
+        <v>196.0400033241253</v>
       </c>
       <c r="AB8" t="n">
-        <v>215.2945268286599</v>
+        <v>268.2305812224988</v>
       </c>
       <c r="AC8" t="n">
-        <v>194.7471193559605</v>
+        <v>242.6310310146871</v>
       </c>
       <c r="AD8" t="n">
-        <v>157350.9611126169</v>
+        <v>196040.0033241253</v>
       </c>
       <c r="AE8" t="n">
-        <v>215294.5268286599</v>
+        <v>268230.5812224987</v>
       </c>
       <c r="AF8" t="n">
         <v>1.876698339398142e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.15</v>
       </c>
       <c r="AH8" t="n">
-        <v>194747.1193559605</v>
+        <v>242631.0310146871</v>
       </c>
     </row>
     <row r="9">
@@ -5551,28 +5551,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>156.9533694802583</v>
+        <v>195.6424116917666</v>
       </c>
       <c r="AB9" t="n">
-        <v>214.7505244167622</v>
+        <v>267.686578810601</v>
       </c>
       <c r="AC9" t="n">
-        <v>194.2550357707419</v>
+        <v>242.1389474294685</v>
       </c>
       <c r="AD9" t="n">
-        <v>156953.3694802583</v>
+        <v>195642.4116917666</v>
       </c>
       <c r="AE9" t="n">
-        <v>214750.5244167622</v>
+        <v>267686.578810601</v>
       </c>
       <c r="AF9" t="n">
         <v>1.883004421710485e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.120833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>194255.0357707419</v>
+        <v>242138.9474294685</v>
       </c>
     </row>
   </sheetData>
@@ -5848,28 +5848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.9519159693028</v>
+        <v>243.0848064076611</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.7958591655195</v>
+        <v>332.5993562715929</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.38306137858</v>
+        <v>300.8565405152594</v>
       </c>
       <c r="AD2" t="n">
-        <v>186951.9159693028</v>
+        <v>243084.8064076611</v>
       </c>
       <c r="AE2" t="n">
-        <v>255795.8591655195</v>
+        <v>332599.3562715929</v>
       </c>
       <c r="AF2" t="n">
         <v>2.018689570955105e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>231383.06137858</v>
+        <v>300856.5405152594</v>
       </c>
     </row>
     <row r="3">
@@ -5954,28 +5954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.7580116390717</v>
+        <v>187.5354203377037</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.5913213297</v>
+        <v>256.5942355847612</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.210675925665</v>
+        <v>232.1052418728978</v>
       </c>
       <c r="AD3" t="n">
-        <v>140758.0116390717</v>
+        <v>187535.4203377037</v>
       </c>
       <c r="AE3" t="n">
-        <v>192591.3213297</v>
+        <v>256594.2355847612</v>
       </c>
       <c r="AF3" t="n">
         <v>2.496927427989867e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>174210.675925665</v>
+        <v>232105.2418728978</v>
       </c>
     </row>
     <row r="4">
@@ -6060,28 +6060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.1902021584098</v>
+        <v>185.8661256305566</v>
       </c>
       <c r="AB4" t="n">
-        <v>190.4461752313867</v>
+        <v>254.3102329223587</v>
       </c>
       <c r="AC4" t="n">
-        <v>172.2702595602426</v>
+        <v>230.0392212189764</v>
       </c>
       <c r="AD4" t="n">
-        <v>139190.2021584098</v>
+        <v>185866.1256305565</v>
       </c>
       <c r="AE4" t="n">
-        <v>190446.1752313867</v>
+        <v>254310.2329223587</v>
       </c>
       <c r="AF4" t="n">
         <v>2.53575944453004e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.454166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>172270.2595602426</v>
+        <v>230039.2212189764</v>
       </c>
     </row>
   </sheetData>
@@ -6357,28 +6357,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.1722326143685</v>
+        <v>313.5502235137238</v>
       </c>
       <c r="AB2" t="n">
-        <v>338.1919531321246</v>
+        <v>429.0132486710651</v>
       </c>
       <c r="AC2" t="n">
-        <v>305.9153877806828</v>
+        <v>388.0688263417741</v>
       </c>
       <c r="AD2" t="n">
-        <v>247172.2326143685</v>
+        <v>313550.2235137238</v>
       </c>
       <c r="AE2" t="n">
-        <v>338191.9531321246</v>
+        <v>429013.2486710651</v>
       </c>
       <c r="AF2" t="n">
         <v>1.513531434525307e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.71666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>305915.3877806828</v>
+        <v>388068.8263417741</v>
       </c>
     </row>
     <row r="3">
@@ -6463,28 +6463,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.9184280273328</v>
+        <v>217.2639588620221</v>
       </c>
       <c r="AB3" t="n">
-        <v>232.4898894988755</v>
+        <v>297.2701335242698</v>
       </c>
       <c r="AC3" t="n">
-        <v>210.3013807467792</v>
+        <v>268.899089202054</v>
       </c>
       <c r="AD3" t="n">
-        <v>169918.4280273328</v>
+        <v>217263.9588620221</v>
       </c>
       <c r="AE3" t="n">
-        <v>232489.8894988755</v>
+        <v>297270.1335242698</v>
       </c>
       <c r="AF3" t="n">
         <v>2.018457079321686e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.28333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>210301.3807467792</v>
+        <v>268899.089202054</v>
       </c>
     </row>
     <row r="4">
@@ -6569,28 +6569,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.5617337908357</v>
+        <v>195.8730992067442</v>
       </c>
       <c r="AB4" t="n">
-        <v>203.2687182536616</v>
+        <v>268.0022156458081</v>
       </c>
       <c r="AC4" t="n">
-        <v>183.8690370730278</v>
+        <v>242.4244603281226</v>
       </c>
       <c r="AD4" t="n">
-        <v>148561.7337908357</v>
+        <v>195873.0992067442</v>
       </c>
       <c r="AE4" t="n">
-        <v>203268.7182536616</v>
+        <v>268002.2156458081</v>
       </c>
       <c r="AF4" t="n">
         <v>2.198207619669524e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.441666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>183869.0370730278</v>
+        <v>242424.4603281226</v>
       </c>
     </row>
     <row r="5">
@@ -6675,28 +6675,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>145.1676432831649</v>
+        <v>183.0647694081563</v>
       </c>
       <c r="AB5" t="n">
-        <v>198.6247738843635</v>
+        <v>250.4772937517583</v>
       </c>
       <c r="AC5" t="n">
-        <v>179.6683042365172</v>
+        <v>226.5720923832531</v>
       </c>
       <c r="AD5" t="n">
-        <v>145167.6432831649</v>
+        <v>183064.7694081563</v>
       </c>
       <c r="AE5" t="n">
-        <v>198624.7738843635</v>
+        <v>250477.2937517583</v>
       </c>
       <c r="AF5" t="n">
         <v>2.248575634162779e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.233333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>179668.3042365172</v>
+        <v>226572.092383253</v>
       </c>
     </row>
     <row r="6">
@@ -6781,28 +6781,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>145.4776241073064</v>
+        <v>183.3747502322977</v>
       </c>
       <c r="AB6" t="n">
-        <v>199.0489033233424</v>
+        <v>250.9014231907373</v>
       </c>
       <c r="AC6" t="n">
-        <v>180.0519553571095</v>
+        <v>226.9557435038454</v>
       </c>
       <c r="AD6" t="n">
-        <v>145477.6241073064</v>
+        <v>183374.7502322978</v>
       </c>
       <c r="AE6" t="n">
-        <v>199048.9033233424</v>
+        <v>250901.4231907373</v>
       </c>
       <c r="AF6" t="n">
         <v>2.248426174179119e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.233333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>180051.9553571095</v>
+        <v>226955.7435038454</v>
       </c>
     </row>
   </sheetData>
@@ -7078,28 +7078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.0990378567917</v>
+        <v>208.5723315850732</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.4768578484276</v>
+        <v>285.3778656364211</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.48468053805</v>
+        <v>258.141802670515</v>
       </c>
       <c r="AD2" t="n">
-        <v>153099.0378567917</v>
+        <v>208572.3315850732</v>
       </c>
       <c r="AE2" t="n">
-        <v>209476.8578484275</v>
+        <v>285377.8656364211</v>
       </c>
       <c r="AF2" t="n">
         <v>2.568517460040797e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>189484.68053805</v>
+        <v>258141.802670515</v>
       </c>
     </row>
     <row r="3">
@@ -7184,28 +7184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.5145267530968</v>
+        <v>180.7707427089821</v>
       </c>
       <c r="AB3" t="n">
-        <v>184.0487098656</v>
+        <v>247.3385052166345</v>
       </c>
       <c r="AC3" t="n">
-        <v>166.4833593100655</v>
+        <v>223.7328654206031</v>
       </c>
       <c r="AD3" t="n">
-        <v>134514.5267530968</v>
+        <v>180770.7427089821</v>
       </c>
       <c r="AE3" t="n">
-        <v>184048.7098656</v>
+        <v>247338.5052166345</v>
       </c>
       <c r="AF3" t="n">
         <v>2.806715315869213e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.783333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>166483.3593100655</v>
+        <v>223732.8654206031</v>
       </c>
     </row>
   </sheetData>
@@ -7481,28 +7481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>461.7768266499688</v>
+        <v>558.8661136382365</v>
       </c>
       <c r="AB2" t="n">
-        <v>631.8234263782854</v>
+        <v>764.6652721126766</v>
       </c>
       <c r="AC2" t="n">
-        <v>571.5230853344895</v>
+        <v>691.6866917566917</v>
       </c>
       <c r="AD2" t="n">
-        <v>461776.8266499687</v>
+        <v>558866.1136382364</v>
       </c>
       <c r="AE2" t="n">
-        <v>631823.4263782854</v>
+        <v>764665.2721126765</v>
       </c>
       <c r="AF2" t="n">
         <v>8.589499623120962e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.5125</v>
       </c>
       <c r="AH2" t="n">
-        <v>571523.0853344895</v>
+        <v>691686.6917566918</v>
       </c>
     </row>
     <row r="3">
@@ -7587,28 +7587,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>226.7880722232464</v>
+        <v>294.682242277475</v>
       </c>
       <c r="AB3" t="n">
-        <v>310.3014455993174</v>
+        <v>403.1972443470449</v>
       </c>
       <c r="AC3" t="n">
-        <v>280.6867111422246</v>
+        <v>364.7166652374488</v>
       </c>
       <c r="AD3" t="n">
-        <v>226788.0722232464</v>
+        <v>294682.242277475</v>
       </c>
       <c r="AE3" t="n">
-        <v>310301.4455993174</v>
+        <v>403197.244347045</v>
       </c>
       <c r="AF3" t="n">
         <v>1.400036956270919e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.97083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>280686.7111422246</v>
+        <v>364716.6652374488</v>
       </c>
     </row>
     <row r="4">
@@ -7693,28 +7693,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>194.3048950089477</v>
+        <v>242.8837039218617</v>
       </c>
       <c r="AB4" t="n">
-        <v>265.8565294780975</v>
+        <v>332.3241989785066</v>
       </c>
       <c r="AC4" t="n">
-        <v>240.4835554367682</v>
+        <v>300.6076438480395</v>
       </c>
       <c r="AD4" t="n">
-        <v>194304.8950089476</v>
+        <v>242883.7039218617</v>
       </c>
       <c r="AE4" t="n">
-        <v>265856.5294780975</v>
+        <v>332324.1989785066</v>
       </c>
       <c r="AF4" t="n">
         <v>1.587746240505352e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.55416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>240483.5554367682</v>
+        <v>300607.6438480395</v>
       </c>
     </row>
     <row r="5">
@@ -7799,28 +7799,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>174.135566940706</v>
+        <v>232.3208082961042</v>
       </c>
       <c r="AB5" t="n">
-        <v>238.2599650071883</v>
+        <v>317.8715791812864</v>
       </c>
       <c r="AC5" t="n">
-        <v>215.5207683469322</v>
+        <v>287.534361799882</v>
       </c>
       <c r="AD5" t="n">
-        <v>174135.566940706</v>
+        <v>232320.8082961043</v>
       </c>
       <c r="AE5" t="n">
-        <v>238259.9650071883</v>
+        <v>317871.5791812864</v>
       </c>
       <c r="AF5" t="n">
         <v>1.69163590863853e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.908333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>215520.7683469323</v>
+        <v>287534.361799882</v>
       </c>
     </row>
     <row r="6">
@@ -7905,28 +7905,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>168.5501925433091</v>
+        <v>217.0948360374423</v>
       </c>
       <c r="AB6" t="n">
-        <v>230.617809347346</v>
+        <v>297.0387322145074</v>
       </c>
       <c r="AC6" t="n">
-        <v>208.60796929743</v>
+        <v>268.6897725085214</v>
       </c>
       <c r="AD6" t="n">
-        <v>168550.1925433091</v>
+        <v>217094.8360374423</v>
       </c>
       <c r="AE6" t="n">
-        <v>230617.809347346</v>
+        <v>297038.7322145074</v>
       </c>
       <c r="AF6" t="n">
         <v>1.749875258021744e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.575000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>208607.96929743</v>
+        <v>268689.7725085214</v>
       </c>
     </row>
     <row r="7">
@@ -8011,28 +8011,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>164.1230130134128</v>
+        <v>212.5661712810607</v>
       </c>
       <c r="AB7" t="n">
-        <v>224.5603470011685</v>
+        <v>290.8424133042406</v>
       </c>
       <c r="AC7" t="n">
-        <v>203.128622655868</v>
+        <v>263.0848215784603</v>
       </c>
       <c r="AD7" t="n">
-        <v>164123.0130134128</v>
+        <v>212566.1712810607</v>
       </c>
       <c r="AE7" t="n">
-        <v>224560.3470011685</v>
+        <v>290842.4133042406</v>
       </c>
       <c r="AF7" t="n">
         <v>1.792388374249684e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.35</v>
       </c>
       <c r="AH7" t="n">
-        <v>203128.622655868</v>
+        <v>263084.8215784603</v>
       </c>
     </row>
     <row r="8">
@@ -8117,28 +8117,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>160.102865060903</v>
+        <v>198.9054254672859</v>
       </c>
       <c r="AB8" t="n">
-        <v>219.0598032161369</v>
+        <v>272.1511782122723</v>
       </c>
       <c r="AC8" t="n">
-        <v>198.1530430496164</v>
+        <v>246.1774517303504</v>
       </c>
       <c r="AD8" t="n">
-        <v>160102.865060903</v>
+        <v>198905.4254672859</v>
       </c>
       <c r="AE8" t="n">
-        <v>219059.8032161369</v>
+        <v>272151.1782122723</v>
       </c>
       <c r="AF8" t="n">
         <v>1.82701826362741e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.170833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>198153.0430496164</v>
+        <v>246177.4517303504</v>
       </c>
     </row>
     <row r="9">
@@ -8223,28 +8223,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>158.6150723168697</v>
+        <v>197.4176327232526</v>
       </c>
       <c r="AB9" t="n">
-        <v>217.0241395469681</v>
+        <v>270.1155145431035</v>
       </c>
       <c r="AC9" t="n">
-        <v>196.3116602639605</v>
+        <v>244.3360689446945</v>
       </c>
       <c r="AD9" t="n">
-        <v>158615.0723168697</v>
+        <v>197417.6327232526</v>
       </c>
       <c r="AE9" t="n">
-        <v>217024.1395469681</v>
+        <v>270115.5145431035</v>
       </c>
       <c r="AF9" t="n">
         <v>1.838843103902731e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.112500000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>196311.6602639605</v>
+        <v>244336.0689446945</v>
       </c>
     </row>
     <row r="10">
@@ -8329,28 +8329,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>158.7744984385482</v>
+        <v>197.5770588449311</v>
       </c>
       <c r="AB10" t="n">
-        <v>217.2422734000326</v>
+        <v>270.333648396168</v>
       </c>
       <c r="AC10" t="n">
-        <v>196.5089757282414</v>
+        <v>244.5333844089754</v>
       </c>
       <c r="AD10" t="n">
-        <v>158774.4984385482</v>
+        <v>197577.0588449311</v>
       </c>
       <c r="AE10" t="n">
-        <v>217242.2734000326</v>
+        <v>270333.648396168</v>
       </c>
       <c r="AF10" t="n">
         <v>1.837837590273877e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.116666666666665</v>
       </c>
       <c r="AH10" t="n">
-        <v>196508.9757282414</v>
+        <v>244533.3844089754</v>
       </c>
     </row>
   </sheetData>
@@ -8626,28 +8626,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.1222983841723</v>
+        <v>188.0025703921097</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.4579986424289</v>
+        <v>257.233410898405</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.8992001755657</v>
+        <v>232.6834151916959</v>
       </c>
       <c r="AD2" t="n">
-        <v>142122.2983841723</v>
+        <v>188002.5703921097</v>
       </c>
       <c r="AE2" t="n">
-        <v>194457.998642429</v>
+        <v>257233.410898405</v>
       </c>
       <c r="AF2" t="n">
         <v>2.94957905403087e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.18333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>175899.2001755657</v>
+        <v>232683.4151916959</v>
       </c>
     </row>
     <row r="3">
@@ -8732,28 +8732,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.6129238950136</v>
+        <v>187.493195902951</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.7610499943459</v>
+        <v>256.536462250322</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.268767328282</v>
+        <v>232.0529823444121</v>
       </c>
       <c r="AD3" t="n">
-        <v>141612.9238950136</v>
+        <v>187493.195902951</v>
       </c>
       <c r="AE3" t="n">
-        <v>193761.0499943459</v>
+        <v>256536.462250322</v>
       </c>
       <c r="AF3" t="n">
         <v>2.977697062172251e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.0875</v>
       </c>
       <c r="AH3" t="n">
-        <v>175268.767328282</v>
+        <v>232052.9823444121</v>
       </c>
     </row>
   </sheetData>
@@ -9029,28 +9029,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>319.0899597422003</v>
+        <v>405.3176229569762</v>
       </c>
       <c r="AB2" t="n">
-        <v>436.5929601747806</v>
+        <v>554.5734530812583</v>
       </c>
       <c r="AC2" t="n">
-        <v>394.9251408177669</v>
+        <v>501.645741067912</v>
       </c>
       <c r="AD2" t="n">
-        <v>319089.9597422003</v>
+        <v>405317.6229569762</v>
       </c>
       <c r="AE2" t="n">
-        <v>436592.9601747806</v>
+        <v>554573.4530812583</v>
       </c>
       <c r="AF2" t="n">
         <v>1.178283178349801e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.85</v>
       </c>
       <c r="AH2" t="n">
-        <v>394925.1408177669</v>
+        <v>501645.741067912</v>
       </c>
     </row>
     <row r="3">
@@ -9135,28 +9135,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.4530449582071</v>
+        <v>247.3621094872481</v>
       </c>
       <c r="AB3" t="n">
-        <v>272.9004553590172</v>
+        <v>338.4517510463749</v>
       </c>
       <c r="AC3" t="n">
-        <v>246.8552189178272</v>
+        <v>306.1503909466257</v>
       </c>
       <c r="AD3" t="n">
-        <v>199453.0449582071</v>
+        <v>247362.1094872481</v>
       </c>
       <c r="AE3" t="n">
-        <v>272900.4553590172</v>
+        <v>338451.7510463749</v>
       </c>
       <c r="AF3" t="n">
         <v>1.697174153928288e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.00416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>246855.2189178272</v>
+        <v>306150.3909466257</v>
       </c>
     </row>
     <row r="4">
@@ -9241,28 +9241,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>164.2355969859552</v>
+        <v>221.6979288499511</v>
       </c>
       <c r="AB4" t="n">
-        <v>224.7143893592552</v>
+        <v>303.3368868747013</v>
       </c>
       <c r="AC4" t="n">
-        <v>203.2679634274988</v>
+        <v>274.3868401274641</v>
       </c>
       <c r="AD4" t="n">
-        <v>164235.5969859552</v>
+        <v>221697.9288499511</v>
       </c>
       <c r="AE4" t="n">
-        <v>224714.3893592552</v>
+        <v>303336.8868747014</v>
       </c>
       <c r="AF4" t="n">
         <v>1.881730470859727e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.924999999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>203267.9634274988</v>
+        <v>274386.8401274641</v>
       </c>
     </row>
     <row r="5">
@@ -9347,28 +9347,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>156.5967382113205</v>
+        <v>204.4374719027999</v>
       </c>
       <c r="AB5" t="n">
-        <v>214.2625657811406</v>
+        <v>279.7203682020028</v>
       </c>
       <c r="AC5" t="n">
-        <v>193.8136472224496</v>
+        <v>253.0242488508883</v>
       </c>
       <c r="AD5" t="n">
-        <v>156596.7382113205</v>
+        <v>204437.4719027999</v>
       </c>
       <c r="AE5" t="n">
-        <v>214262.5657811406</v>
+        <v>279720.3682020028</v>
       </c>
       <c r="AF5" t="n">
         <v>1.978445510184168e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.4375</v>
       </c>
       <c r="AH5" t="n">
-        <v>193813.6472224497</v>
+        <v>253024.2488508883</v>
       </c>
     </row>
     <row r="6">
@@ -9453,28 +9453,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>151.832786704437</v>
+        <v>190.1534074498851</v>
       </c>
       <c r="AB6" t="n">
-        <v>207.7443171587185</v>
+        <v>260.176281049086</v>
       </c>
       <c r="AC6" t="n">
-        <v>187.91749110013</v>
+        <v>235.345421945541</v>
       </c>
       <c r="AD6" t="n">
-        <v>151832.7867044371</v>
+        <v>190153.4074498851</v>
       </c>
       <c r="AE6" t="n">
-        <v>207744.3171587185</v>
+        <v>260176.281049086</v>
       </c>
       <c r="AF6" t="n">
         <v>2.030926191856513e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.195833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>187917.49110013</v>
+        <v>235345.421945541</v>
       </c>
     </row>
     <row r="7">
@@ -9559,28 +9559,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>150.8835766554581</v>
+        <v>189.2041974009062</v>
       </c>
       <c r="AB7" t="n">
-        <v>206.4455660935143</v>
+        <v>258.8775299838818</v>
       </c>
       <c r="AC7" t="n">
-        <v>186.74269101378</v>
+        <v>234.1706218591909</v>
       </c>
       <c r="AD7" t="n">
-        <v>150883.5766554581</v>
+        <v>189204.1974009062</v>
       </c>
       <c r="AE7" t="n">
-        <v>206445.5660935144</v>
+        <v>258877.5299838818</v>
       </c>
       <c r="AF7" t="n">
         <v>2.044236834432675e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.133333333333335</v>
       </c>
       <c r="AH7" t="n">
-        <v>186742.69101378</v>
+        <v>234170.6218591909</v>
       </c>
     </row>
   </sheetData>
@@ -9856,28 +9856,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>385.4520950087866</v>
+        <v>472.3119089096561</v>
       </c>
       <c r="AB2" t="n">
-        <v>527.3925613373057</v>
+        <v>646.2379907010168</v>
       </c>
       <c r="AC2" t="n">
-        <v>477.0589554833812</v>
+        <v>584.5619438692273</v>
       </c>
       <c r="AD2" t="n">
-        <v>385452.0950087865</v>
+        <v>472311.9089096561</v>
       </c>
       <c r="AE2" t="n">
-        <v>527392.5613373057</v>
+        <v>646237.9907010167</v>
       </c>
       <c r="AF2" t="n">
         <v>1.002164825566192e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.5875</v>
       </c>
       <c r="AH2" t="n">
-        <v>477058.9554833812</v>
+        <v>584561.9438692273</v>
       </c>
     </row>
     <row r="3">
@@ -9962,28 +9962,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.691266556727</v>
+        <v>270.4963239308241</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.0135741792212</v>
+        <v>370.1050038577454</v>
       </c>
       <c r="AC3" t="n">
-        <v>263.2396470997587</v>
+        <v>334.7827017351967</v>
       </c>
       <c r="AD3" t="n">
-        <v>212691.266556727</v>
+        <v>270496.3239308241</v>
       </c>
       <c r="AE3" t="n">
-        <v>291013.5741792212</v>
+        <v>370105.0038577454</v>
       </c>
       <c r="AF3" t="n">
         <v>1.536624530344717e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.47083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>263239.6470997587</v>
+        <v>334782.7017351968</v>
       </c>
     </row>
     <row r="4">
@@ -10068,28 +10068,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>184.1627310858219</v>
+        <v>232.3508634452665</v>
       </c>
       <c r="AB4" t="n">
-        <v>251.9795733577902</v>
+        <v>317.9127019623098</v>
       </c>
       <c r="AC4" t="n">
-        <v>227.9309965321484</v>
+        <v>287.5715598804008</v>
       </c>
       <c r="AD4" t="n">
-        <v>184162.7310858219</v>
+        <v>232350.8634452665</v>
       </c>
       <c r="AE4" t="n">
-        <v>251979.5733577902</v>
+        <v>317912.7019623098</v>
       </c>
       <c r="AF4" t="n">
         <v>1.721489886517121e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.2375</v>
       </c>
       <c r="AH4" t="n">
-        <v>227930.9965321484</v>
+        <v>287571.5598804008</v>
       </c>
     </row>
     <row r="5">
@@ -10174,28 +10174,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>165.8080236103405</v>
+        <v>214.0634757774895</v>
       </c>
       <c r="AB5" t="n">
-        <v>226.8658528373049</v>
+        <v>292.8910913726658</v>
       </c>
       <c r="AC5" t="n">
-        <v>205.214094250802</v>
+        <v>264.9379766873735</v>
       </c>
       <c r="AD5" t="n">
-        <v>165808.0236103405</v>
+        <v>214063.4757774895</v>
       </c>
       <c r="AE5" t="n">
-        <v>226865.8528373048</v>
+        <v>292891.0913726658</v>
       </c>
       <c r="AF5" t="n">
         <v>1.818872048967664e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.691666666666668</v>
       </c>
       <c r="AH5" t="n">
-        <v>205214.094250802</v>
+        <v>264937.9766873735</v>
       </c>
     </row>
     <row r="6">
@@ -10280,28 +10280,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>159.998285034533</v>
+        <v>208.1522519751969</v>
       </c>
       <c r="AB6" t="n">
-        <v>218.9167122103124</v>
+        <v>284.8030941815842</v>
       </c>
       <c r="AC6" t="n">
-        <v>198.0236084485583</v>
+        <v>257.6218865966308</v>
       </c>
       <c r="AD6" t="n">
-        <v>159998.285034533</v>
+        <v>208152.2519751969</v>
       </c>
       <c r="AE6" t="n">
-        <v>218916.7122103124</v>
+        <v>284803.0941815842</v>
       </c>
       <c r="AF6" t="n">
         <v>1.882750009567282e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.362499999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>198023.6084485583</v>
+        <v>257621.8865966307</v>
       </c>
     </row>
     <row r="7">
@@ -10386,28 +10386,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>155.9201491766127</v>
+        <v>194.4913565214083</v>
       </c>
       <c r="AB7" t="n">
-        <v>213.3368268148522</v>
+        <v>266.1116543455473</v>
       </c>
       <c r="AC7" t="n">
-        <v>192.9762594838207</v>
+        <v>240.7143315449387</v>
       </c>
       <c r="AD7" t="n">
-        <v>155920.1491766126</v>
+        <v>194491.3565214083</v>
       </c>
       <c r="AE7" t="n">
-        <v>213336.8268148522</v>
+        <v>266111.6543455473</v>
       </c>
       <c r="AF7" t="n">
         <v>1.922472794337508e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>192976.2594838207</v>
+        <v>240714.3315449387</v>
       </c>
     </row>
     <row r="8">
@@ -10492,28 +10492,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>154.7070267424028</v>
+        <v>193.2782340871985</v>
       </c>
       <c r="AB8" t="n">
-        <v>211.6769791811825</v>
+        <v>264.4518067118776</v>
       </c>
       <c r="AC8" t="n">
-        <v>191.4748253786971</v>
+        <v>239.2128974398152</v>
       </c>
       <c r="AD8" t="n">
-        <v>154707.0267424028</v>
+        <v>193278.2340871984</v>
       </c>
       <c r="AE8" t="n">
-        <v>211676.9791811825</v>
+        <v>264451.8067118776</v>
       </c>
       <c r="AF8" t="n">
         <v>1.933175525484332e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.116666666666665</v>
       </c>
       <c r="AH8" t="n">
-        <v>191474.8253786971</v>
+        <v>239212.8974398152</v>
       </c>
     </row>
   </sheetData>
@@ -10789,28 +10789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>572.7179492470166</v>
+        <v>680.0418141837952</v>
       </c>
       <c r="AB2" t="n">
-        <v>783.6179646924672</v>
+        <v>930.4632114937237</v>
       </c>
       <c r="AC2" t="n">
-        <v>708.8305659569384</v>
+        <v>841.6611085020812</v>
       </c>
       <c r="AD2" t="n">
-        <v>572717.9492470166</v>
+        <v>680041.8141837951</v>
       </c>
       <c r="AE2" t="n">
-        <v>783617.9646924672</v>
+        <v>930463.2114937238</v>
       </c>
       <c r="AF2" t="n">
         <v>7.272786682183555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.03333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>708830.5659569383</v>
+        <v>841661.1085020812</v>
       </c>
     </row>
     <row r="3">
@@ -10895,28 +10895,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>252.668057987587</v>
+        <v>320.9737374062076</v>
       </c>
       <c r="AB3" t="n">
-        <v>345.711583866462</v>
+        <v>439.1704278810805</v>
       </c>
       <c r="AC3" t="n">
-        <v>312.7173555116054</v>
+        <v>397.2566186236762</v>
       </c>
       <c r="AD3" t="n">
-        <v>252668.057987587</v>
+        <v>320973.7374062076</v>
       </c>
       <c r="AE3" t="n">
-        <v>345711.583866462</v>
+        <v>439170.4278810805</v>
       </c>
       <c r="AF3" t="n">
         <v>1.277736941107396e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.54166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>312717.3555116054</v>
+        <v>397256.6186236762</v>
       </c>
     </row>
     <row r="4">
@@ -11001,28 +11001,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>204.3391248015924</v>
+        <v>262.8819692434412</v>
       </c>
       <c r="AB4" t="n">
-        <v>279.5858053593628</v>
+        <v>359.6867078528475</v>
       </c>
       <c r="AC4" t="n">
-        <v>252.9025284970897</v>
+        <v>325.358713278836</v>
       </c>
       <c r="AD4" t="n">
-        <v>204339.1248015924</v>
+        <v>262881.9692434412</v>
       </c>
       <c r="AE4" t="n">
-        <v>279585.8053593628</v>
+        <v>359686.7078528475</v>
       </c>
       <c r="AF4" t="n">
         <v>1.475977292982694e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.85416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>252902.5284970897</v>
+        <v>325358.713278836</v>
       </c>
     </row>
     <row r="5">
@@ -11107,28 +11107,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>193.5554471642042</v>
+        <v>242.3023022403551</v>
       </c>
       <c r="AB5" t="n">
-        <v>264.8311018736146</v>
+        <v>331.5286995482379</v>
       </c>
       <c r="AC5" t="n">
-        <v>239.5559932036602</v>
+        <v>299.8880657669048</v>
       </c>
       <c r="AD5" t="n">
-        <v>193555.4471642042</v>
+        <v>242302.3022403551</v>
       </c>
       <c r="AE5" t="n">
-        <v>264831.1018736146</v>
+        <v>331528.6995482378</v>
       </c>
       <c r="AF5" t="n">
         <v>1.571578750744476e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.19583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>239555.9932036602</v>
+        <v>299888.0657669049</v>
       </c>
     </row>
     <row r="6">
@@ -11213,28 +11213,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>176.3798135947749</v>
+        <v>225.1939884786302</v>
       </c>
       <c r="AB6" t="n">
-        <v>241.3306422884584</v>
+        <v>308.1203498939231</v>
       </c>
       <c r="AC6" t="n">
-        <v>218.2983844982016</v>
+        <v>278.7137761497654</v>
       </c>
       <c r="AD6" t="n">
-        <v>176379.8135947749</v>
+        <v>225193.9884786302</v>
       </c>
       <c r="AE6" t="n">
-        <v>241330.6422884584</v>
+        <v>308120.3498939231</v>
       </c>
       <c r="AF6" t="n">
         <v>1.641337819280226e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.762500000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>218298.3844982016</v>
+        <v>278713.7761497654</v>
       </c>
     </row>
     <row r="7">
@@ -11319,28 +11319,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>171.9330488842225</v>
+        <v>220.7472237680777</v>
       </c>
       <c r="AB7" t="n">
-        <v>235.2463826340701</v>
+        <v>302.0360902395348</v>
       </c>
       <c r="AC7" t="n">
-        <v>212.7947980459141</v>
+        <v>273.2101896974779</v>
       </c>
       <c r="AD7" t="n">
-        <v>171933.0488842225</v>
+        <v>220747.2237680777</v>
       </c>
       <c r="AE7" t="n">
-        <v>235246.3826340701</v>
+        <v>302036.0902395348</v>
       </c>
       <c r="AF7" t="n">
         <v>1.681908832127644e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.525</v>
       </c>
       <c r="AH7" t="n">
-        <v>212794.7980459141</v>
+        <v>273210.1896974779</v>
       </c>
     </row>
     <row r="8">
@@ -11425,28 +11425,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>168.2717805561113</v>
+        <v>216.9844702134813</v>
       </c>
       <c r="AB8" t="n">
-        <v>230.236873783792</v>
+        <v>296.8877248251675</v>
       </c>
       <c r="AC8" t="n">
-        <v>208.2633896894152</v>
+        <v>268.55317705248</v>
       </c>
       <c r="AD8" t="n">
-        <v>168271.7805561113</v>
+        <v>216984.4702134813</v>
       </c>
       <c r="AE8" t="n">
-        <v>230236.873783792</v>
+        <v>296887.7248251675</v>
       </c>
       <c r="AF8" t="n">
         <v>1.712865860887996e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.354166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>208263.3896894152</v>
+        <v>268553.1770524799</v>
       </c>
     </row>
     <row r="9">
@@ -11531,28 +11531,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>164.8513380422941</v>
+        <v>203.8695235604548</v>
       </c>
       <c r="AB9" t="n">
-        <v>225.556873437116</v>
+        <v>278.943276223894</v>
       </c>
       <c r="AC9" t="n">
-        <v>204.0300420074026</v>
+        <v>252.3213214405145</v>
       </c>
       <c r="AD9" t="n">
-        <v>164851.3380422941</v>
+        <v>203869.5235604548</v>
       </c>
       <c r="AE9" t="n">
-        <v>225556.873437116</v>
+        <v>278943.276223894</v>
       </c>
       <c r="AF9" t="n">
         <v>1.7404387672497e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.208333333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>204030.0420074026</v>
+        <v>252321.3214405145</v>
       </c>
     </row>
     <row r="10">
@@ -11637,28 +11637,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>162.9080479353402</v>
+        <v>201.9262334535009</v>
       </c>
       <c r="AB10" t="n">
-        <v>222.8979781808741</v>
+        <v>276.2843809676522</v>
       </c>
       <c r="AC10" t="n">
-        <v>201.6249079826327</v>
+        <v>249.9161874157446</v>
       </c>
       <c r="AD10" t="n">
-        <v>162908.0479353403</v>
+        <v>201926.2334535009</v>
       </c>
       <c r="AE10" t="n">
-        <v>222897.9781808741</v>
+        <v>276284.3809676523</v>
       </c>
       <c r="AF10" t="n">
         <v>1.752552387199403e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.141666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>201624.9079826328</v>
+        <v>249916.1874157446</v>
       </c>
     </row>
     <row r="11">
@@ -11743,28 +11743,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>162.217260937377</v>
+        <v>201.2354464555376</v>
       </c>
       <c r="AB11" t="n">
-        <v>221.9528129348898</v>
+        <v>275.3392157216679</v>
       </c>
       <c r="AC11" t="n">
-        <v>200.7699479811771</v>
+        <v>249.061227414289</v>
       </c>
       <c r="AD11" t="n">
-        <v>162217.260937377</v>
+        <v>201235.4464555376</v>
       </c>
       <c r="AE11" t="n">
-        <v>221952.8129348898</v>
+        <v>275339.2157216679</v>
       </c>
       <c r="AF11" t="n">
         <v>1.759512911678439e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.108333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>200769.9479811771</v>
+        <v>249061.227414289</v>
       </c>
     </row>
   </sheetData>
@@ -12040,28 +12040,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>272.7285364205367</v>
+        <v>339.2994105372747</v>
       </c>
       <c r="AB2" t="n">
-        <v>373.1592154644349</v>
+        <v>464.2444223306458</v>
       </c>
       <c r="AC2" t="n">
-        <v>337.5454236727568</v>
+        <v>419.9375862345473</v>
       </c>
       <c r="AD2" t="n">
-        <v>272728.5364205367</v>
+        <v>339299.4105372747</v>
       </c>
       <c r="AE2" t="n">
-        <v>373159.2154644349</v>
+        <v>464244.4223306458</v>
       </c>
       <c r="AF2" t="n">
         <v>1.388515508883853e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.3875</v>
       </c>
       <c r="AH2" t="n">
-        <v>337545.4236727568</v>
+        <v>419937.5862345473</v>
       </c>
     </row>
     <row r="3">
@@ -12146,28 +12146,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.1358918518537</v>
+        <v>223.6672819901789</v>
       </c>
       <c r="AB3" t="n">
-        <v>240.996897798726</v>
+        <v>306.0314427228885</v>
       </c>
       <c r="AC3" t="n">
-        <v>217.9964921141558</v>
+        <v>276.824231347334</v>
       </c>
       <c r="AD3" t="n">
-        <v>176135.8918518537</v>
+        <v>223667.2819901789</v>
       </c>
       <c r="AE3" t="n">
-        <v>240996.897798726</v>
+        <v>306031.4427228885</v>
       </c>
       <c r="AF3" t="n">
         <v>1.902970500626167e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.49583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>217996.4921141558</v>
+        <v>276824.231347334</v>
       </c>
     </row>
     <row r="4">
@@ -12252,28 +12252,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>154.0466595773713</v>
+        <v>201.645369523401</v>
       </c>
       <c r="AB4" t="n">
-        <v>210.7734356926436</v>
+        <v>275.9000905476476</v>
       </c>
       <c r="AC4" t="n">
-        <v>190.6575148125729</v>
+        <v>249.5685731340701</v>
       </c>
       <c r="AD4" t="n">
-        <v>154046.6595773713</v>
+        <v>201645.369523401</v>
       </c>
       <c r="AE4" t="n">
-        <v>210773.4356926436</v>
+        <v>275900.0905476476</v>
       </c>
       <c r="AF4" t="n">
         <v>2.077523722593716e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.616666666666665</v>
       </c>
       <c r="AH4" t="n">
-        <v>190657.5148125729</v>
+        <v>249568.5731340701</v>
       </c>
     </row>
     <row r="5">
@@ -12358,28 +12358,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>147.8093857558653</v>
+        <v>185.8551993237654</v>
       </c>
       <c r="AB5" t="n">
-        <v>202.2393224809628</v>
+        <v>254.2952830673723</v>
       </c>
       <c r="AC5" t="n">
-        <v>182.9378853881091</v>
+        <v>230.0256981571677</v>
       </c>
       <c r="AD5" t="n">
-        <v>147809.3857558653</v>
+        <v>185855.1993237654</v>
       </c>
       <c r="AE5" t="n">
-        <v>202239.3224809628</v>
+        <v>254295.2830673723</v>
       </c>
       <c r="AF5" t="n">
         <v>2.162235489475523e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.237500000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>182937.8853881091</v>
+        <v>230025.6981571677</v>
       </c>
     </row>
     <row r="6">
@@ -12464,28 +12464,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>147.092788180836</v>
+        <v>185.1386017487361</v>
       </c>
       <c r="AB6" t="n">
-        <v>201.2588420647545</v>
+        <v>253.314802651164</v>
       </c>
       <c r="AC6" t="n">
-        <v>182.0509806467104</v>
+        <v>229.1387934157691</v>
       </c>
       <c r="AD6" t="n">
-        <v>147092.788180836</v>
+        <v>185138.6017487361</v>
       </c>
       <c r="AE6" t="n">
-        <v>201258.8420647545</v>
+        <v>253314.802651164</v>
       </c>
       <c r="AF6" t="n">
         <v>2.177912200154838e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.170833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>182050.9806467104</v>
+        <v>229138.7934157691</v>
       </c>
     </row>
   </sheetData>
@@ -12761,28 +12761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.4181014602455</v>
+        <v>265.7563818644245</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.5350852923648</v>
+        <v>363.6196060110119</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.1885789066637</v>
+        <v>328.9162611566425</v>
       </c>
       <c r="AD2" t="n">
-        <v>209418.1014602455</v>
+        <v>265756.3818644245</v>
       </c>
       <c r="AE2" t="n">
-        <v>286535.0852923648</v>
+        <v>363619.6060110119</v>
       </c>
       <c r="AF2" t="n">
         <v>1.819891327572628e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>259188.5789066638</v>
+        <v>328916.2611566425</v>
       </c>
     </row>
     <row r="3">
@@ -12867,28 +12867,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.4329847146315</v>
+        <v>194.4376515578649</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.7243139707051</v>
+        <v>266.0381728451316</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.4720285672511</v>
+        <v>240.6478630157906</v>
       </c>
       <c r="AD3" t="n">
-        <v>147432.9847146315</v>
+        <v>194437.6515578649</v>
       </c>
       <c r="AE3" t="n">
-        <v>201724.3139707051</v>
+        <v>266038.1728451315</v>
       </c>
       <c r="AF3" t="n">
         <v>2.311319223875376e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.824999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>182472.0285672511</v>
+        <v>240647.8630157906</v>
       </c>
     </row>
     <row r="4">
@@ -12973,28 +12973,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>141.2174232956162</v>
+        <v>188.1206049123644</v>
       </c>
       <c r="AB4" t="n">
-        <v>193.2199086259956</v>
+        <v>257.3949109363328</v>
       </c>
       <c r="AC4" t="n">
-        <v>174.7792717326302</v>
+        <v>232.8295018926707</v>
       </c>
       <c r="AD4" t="n">
-        <v>141217.4232956162</v>
+        <v>188120.6049123644</v>
       </c>
       <c r="AE4" t="n">
-        <v>193219.9086259956</v>
+        <v>257394.9109363329</v>
       </c>
       <c r="AF4" t="n">
         <v>2.425195305447915e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.366666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>174779.2717326302</v>
+        <v>232829.5018926707</v>
       </c>
     </row>
   </sheetData>
@@ -23387,28 +23387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.4669385405979</v>
+        <v>230.2012578200257</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.7133622492433</v>
+        <v>314.9715167119497</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.9308939925527</v>
+        <v>284.9110772223547</v>
       </c>
       <c r="AD2" t="n">
-        <v>174466.9385405979</v>
+        <v>230201.2578200257</v>
       </c>
       <c r="AE2" t="n">
-        <v>238713.3622492433</v>
+        <v>314971.5167119497</v>
       </c>
       <c r="AF2" t="n">
         <v>2.261757480545831e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.27916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>215930.8939925527</v>
+        <v>284911.0772223547</v>
       </c>
     </row>
     <row r="3">
@@ -23493,28 +23493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.7052776171807</v>
+        <v>183.2351147054416</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.0461918469451</v>
+        <v>250.7103677026081</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.1947658181043</v>
+        <v>226.7829220833551</v>
       </c>
       <c r="AD3" t="n">
-        <v>136705.2776171807</v>
+        <v>183235.1147054416</v>
       </c>
       <c r="AE3" t="n">
-        <v>187046.1918469451</v>
+        <v>250710.3677026081</v>
       </c>
       <c r="AF3" t="n">
         <v>2.662133550995682e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>169194.7658181044</v>
+        <v>226782.9220833551</v>
       </c>
     </row>
   </sheetData>
@@ -23790,28 +23790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.5222366545994</v>
+        <v>193.1943639489516</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.5322353605156</v>
+        <v>264.3370518886389</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.4435448279244</v>
+        <v>239.1090946558469</v>
       </c>
       <c r="AD2" t="n">
-        <v>138522.2366545994</v>
+        <v>193194.3639489516</v>
       </c>
       <c r="AE2" t="n">
-        <v>189532.2353605156</v>
+        <v>264337.0518886389</v>
       </c>
       <c r="AF2" t="n">
         <v>3.181091462281601e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.60416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>171443.5448279244</v>
+        <v>239109.0946558469</v>
       </c>
     </row>
   </sheetData>
@@ -24087,28 +24087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>350.779101520294</v>
+        <v>437.328852831468</v>
       </c>
       <c r="AB2" t="n">
-        <v>479.9514419818359</v>
+        <v>598.3726300313292</v>
       </c>
       <c r="AC2" t="n">
-        <v>434.1455499751682</v>
+        <v>541.2647860423992</v>
       </c>
       <c r="AD2" t="n">
-        <v>350779.101520294</v>
+        <v>437328.852831468</v>
       </c>
       <c r="AE2" t="n">
-        <v>479951.4419818359</v>
+        <v>598372.6300313292</v>
       </c>
       <c r="AF2" t="n">
         <v>1.086427060859158e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.68333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>434145.5499751682</v>
+        <v>541264.7860423992</v>
       </c>
     </row>
     <row r="3">
@@ -24193,28 +24193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.947828516027</v>
+        <v>263.5689544428474</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.7869047524501</v>
+        <v>360.626671310323</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.8935580533638</v>
+        <v>326.2089679431771</v>
       </c>
       <c r="AD3" t="n">
-        <v>205947.828516027</v>
+        <v>263568.9544428474</v>
       </c>
       <c r="AE3" t="n">
-        <v>281786.9047524501</v>
+        <v>360626.6713103231</v>
       </c>
       <c r="AF3" t="n">
         <v>1.613307430326547e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.23333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>254893.5580533638</v>
+        <v>326208.9679431771</v>
       </c>
     </row>
     <row r="4">
@@ -24299,28 +24299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>179.0494663348225</v>
+        <v>227.0843224882034</v>
       </c>
       <c r="AB4" t="n">
-        <v>244.9833789441563</v>
+        <v>310.7067882814706</v>
       </c>
       <c r="AC4" t="n">
-        <v>221.602509094129</v>
+        <v>281.0533684876953</v>
       </c>
       <c r="AD4" t="n">
-        <v>179049.4663348225</v>
+        <v>227084.3224882034</v>
       </c>
       <c r="AE4" t="n">
-        <v>244983.3789441563</v>
+        <v>310706.7882814705</v>
       </c>
       <c r="AF4" t="n">
         <v>1.798518081130819e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.075</v>
       </c>
       <c r="AH4" t="n">
-        <v>221602.509094129</v>
+        <v>281053.3684876952</v>
       </c>
     </row>
     <row r="5">
@@ -24405,28 +24405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>161.2585354042671</v>
+        <v>209.3607113653524</v>
       </c>
       <c r="AB5" t="n">
-        <v>220.6410423645041</v>
+        <v>286.4565616326598</v>
       </c>
       <c r="AC5" t="n">
-        <v>199.583370952947</v>
+        <v>259.1175494348323</v>
       </c>
       <c r="AD5" t="n">
-        <v>161258.5354042671</v>
+        <v>209360.7113653524</v>
       </c>
       <c r="AE5" t="n">
-        <v>220641.0423645041</v>
+        <v>286456.5616326598</v>
       </c>
       <c r="AF5" t="n">
         <v>1.893820226718457e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.570833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>199583.370952947</v>
+        <v>259117.5494348323</v>
       </c>
     </row>
     <row r="6">
@@ -24511,28 +24511,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>155.6507193963562</v>
+        <v>203.6514101309563</v>
       </c>
       <c r="AB6" t="n">
-        <v>212.9681811031025</v>
+        <v>278.644843807169</v>
       </c>
       <c r="AC6" t="n">
-        <v>192.6427968014027</v>
+        <v>252.0513709947891</v>
       </c>
       <c r="AD6" t="n">
-        <v>155650.7193963562</v>
+        <v>203651.4101309563</v>
       </c>
       <c r="AE6" t="n">
-        <v>212968.1811031025</v>
+        <v>278644.843807169</v>
       </c>
       <c r="AF6" t="n">
         <v>1.95684752427961e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.262500000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>192642.7968014027</v>
+        <v>252051.3709947891</v>
       </c>
     </row>
     <row r="7">
@@ -24617,28 +24617,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>152.9019331226262</v>
+        <v>191.3505195025709</v>
       </c>
       <c r="AB7" t="n">
-        <v>209.2071704554953</v>
+        <v>261.8142225724262</v>
       </c>
       <c r="AC7" t="n">
-        <v>189.2407317313904</v>
+        <v>236.8270406287595</v>
       </c>
       <c r="AD7" t="n">
-        <v>152901.9331226262</v>
+        <v>191350.5195025709</v>
       </c>
       <c r="AE7" t="n">
-        <v>209207.1704554953</v>
+        <v>261814.2225724262</v>
       </c>
       <c r="AF7" t="n">
         <v>1.98464217103018e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.133333333333335</v>
       </c>
       <c r="AH7" t="n">
-        <v>189240.7317313904</v>
+        <v>236827.0406287595</v>
       </c>
     </row>
     <row r="8">
@@ -24723,28 +24723,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>153.227184604963</v>
+        <v>191.6757709849077</v>
       </c>
       <c r="AB8" t="n">
-        <v>209.6521938827111</v>
+        <v>262.259245999642</v>
       </c>
       <c r="AC8" t="n">
-        <v>189.6432827473071</v>
+        <v>237.2295916446762</v>
       </c>
       <c r="AD8" t="n">
-        <v>153227.1846049631</v>
+        <v>191675.7709849077</v>
       </c>
       <c r="AE8" t="n">
-        <v>209652.1938827111</v>
+        <v>262259.2459996419</v>
       </c>
       <c r="AF8" t="n">
         <v>1.982423818942107e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.141666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>189643.2827473071</v>
+        <v>237229.5916446763</v>
       </c>
     </row>
   </sheetData>
@@ -25020,28 +25020,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>508.990647570142</v>
+        <v>616.0560988739203</v>
       </c>
       <c r="AB2" t="n">
-        <v>696.4234590880397</v>
+        <v>842.9151329562203</v>
       </c>
       <c r="AC2" t="n">
-        <v>629.9577815891402</v>
+        <v>762.4684957056973</v>
       </c>
       <c r="AD2" t="n">
-        <v>508990.6475701419</v>
+        <v>616056.0988739203</v>
       </c>
       <c r="AE2" t="n">
-        <v>696423.4590880397</v>
+        <v>842915.1329562203</v>
       </c>
       <c r="AF2" t="n">
         <v>7.90989652538547e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.70416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>629957.7815891402</v>
+        <v>762468.4957056972</v>
       </c>
     </row>
     <row r="3">
@@ -25126,28 +25126,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>244.3529329188783</v>
+        <v>302.7035858689365</v>
       </c>
       <c r="AB3" t="n">
-        <v>334.3344629100326</v>
+        <v>414.1724005255865</v>
       </c>
       <c r="AC3" t="n">
-        <v>302.4260510113645</v>
+        <v>374.6443679140387</v>
       </c>
       <c r="AD3" t="n">
-        <v>244352.9329188783</v>
+        <v>302703.5858689365</v>
       </c>
       <c r="AE3" t="n">
-        <v>334334.4629100326</v>
+        <v>414172.4005255864</v>
       </c>
       <c r="AF3" t="n">
         <v>1.337666675006057e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.24166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>302426.0510113644</v>
+        <v>374644.3679140387</v>
       </c>
     </row>
     <row r="4">
@@ -25232,28 +25232,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>199.5774324103398</v>
+        <v>257.9612397493178</v>
       </c>
       <c r="AB4" t="n">
-        <v>273.0706477586121</v>
+        <v>352.9539486715568</v>
       </c>
       <c r="AC4" t="n">
-        <v>247.0091683936714</v>
+        <v>319.2685191844271</v>
       </c>
       <c r="AD4" t="n">
-        <v>199577.4324103398</v>
+        <v>257961.2397493178</v>
       </c>
       <c r="AE4" t="n">
-        <v>273070.6477586121</v>
+        <v>352953.9486715568</v>
       </c>
       <c r="AF4" t="n">
         <v>1.527582799282642e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.72083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>247009.1683936714</v>
+        <v>319268.5191844271</v>
       </c>
     </row>
     <row r="5">
@@ -25338,28 +25338,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>188.343688231145</v>
+        <v>236.9580123882396</v>
       </c>
       <c r="AB5" t="n">
-        <v>257.7001433748298</v>
+        <v>324.2164063991489</v>
       </c>
       <c r="AC5" t="n">
-        <v>233.1056033756341</v>
+        <v>293.2736476130947</v>
       </c>
       <c r="AD5" t="n">
-        <v>188343.688231145</v>
+        <v>236958.0123882396</v>
       </c>
       <c r="AE5" t="n">
-        <v>257700.1433748298</v>
+        <v>324216.4063991489</v>
       </c>
       <c r="AF5" t="n">
         <v>1.633231504178225e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.02916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>233105.6033756341</v>
+        <v>293273.6476130947</v>
       </c>
     </row>
     <row r="6">
@@ -25444,28 +25444,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>172.7913370419092</v>
+        <v>221.4729810067082</v>
       </c>
       <c r="AB6" t="n">
-        <v>236.4207303564177</v>
+        <v>303.0291033115781</v>
       </c>
       <c r="AC6" t="n">
-        <v>213.8570676698486</v>
+        <v>274.1084309956282</v>
       </c>
       <c r="AD6" t="n">
-        <v>172791.3370419092</v>
+        <v>221472.9810067082</v>
       </c>
       <c r="AE6" t="n">
-        <v>236420.7303564177</v>
+        <v>303029.1033115781</v>
       </c>
       <c r="AF6" t="n">
         <v>1.688925036483672e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.695833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>213857.0676698486</v>
+        <v>274108.4309956282</v>
       </c>
     </row>
     <row r="7">
@@ -25550,28 +25550,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>168.0134224657293</v>
+        <v>216.5935812040431</v>
       </c>
       <c r="AB7" t="n">
-        <v>229.8833768465772</v>
+        <v>296.3528932376483</v>
       </c>
       <c r="AC7" t="n">
-        <v>207.9436300037519</v>
+        <v>268.0693890410326</v>
       </c>
       <c r="AD7" t="n">
-        <v>168013.4224657294</v>
+        <v>216593.5812040431</v>
       </c>
       <c r="AE7" t="n">
-        <v>229883.3768465772</v>
+        <v>296352.8932376484</v>
       </c>
       <c r="AF7" t="n">
         <v>1.732788114855499e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.450000000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>207943.6300037519</v>
+        <v>268069.3890410326</v>
       </c>
     </row>
     <row r="8">
@@ -25656,28 +25656,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>164.5314451531079</v>
+        <v>213.1116038914216</v>
       </c>
       <c r="AB8" t="n">
-        <v>225.1191818734533</v>
+        <v>291.5886982645245</v>
       </c>
       <c r="AC8" t="n">
-        <v>203.6341231122718</v>
+        <v>263.7598821495525</v>
       </c>
       <c r="AD8" t="n">
-        <v>164531.4451531079</v>
+        <v>213111.6038914216</v>
       </c>
       <c r="AE8" t="n">
-        <v>225119.1818734533</v>
+        <v>291588.6982645245</v>
       </c>
       <c r="AF8" t="n">
         <v>1.764034662620376e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.283333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>203634.1231122718</v>
+        <v>263759.8821495525</v>
       </c>
     </row>
     <row r="9">
@@ -25762,28 +25762,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>161.2580554438456</v>
+        <v>200.1702162267611</v>
       </c>
       <c r="AB9" t="n">
-        <v>220.640385661481</v>
+        <v>273.8817207280156</v>
       </c>
       <c r="AC9" t="n">
-        <v>199.5827769247387</v>
+        <v>247.7428336972233</v>
       </c>
       <c r="AD9" t="n">
-        <v>161258.0554438456</v>
+        <v>200170.2162267611</v>
       </c>
       <c r="AE9" t="n">
-        <v>220640.385661481</v>
+        <v>273881.7207280156</v>
       </c>
       <c r="AF9" t="n">
         <v>1.791193611683935e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.141666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>199582.7769247387</v>
+        <v>247742.8336972233</v>
       </c>
     </row>
     <row r="10">
@@ -25868,28 +25868,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>160.5395285462711</v>
+        <v>199.4516893291866</v>
       </c>
       <c r="AB10" t="n">
-        <v>219.6572654610505</v>
+        <v>272.8986005275852</v>
       </c>
       <c r="AC10" t="n">
-        <v>198.6934843364193</v>
+        <v>246.8535411089038</v>
       </c>
       <c r="AD10" t="n">
-        <v>160539.5285462711</v>
+        <v>199451.6893291866</v>
       </c>
       <c r="AE10" t="n">
-        <v>219657.2654610506</v>
+        <v>272898.6005275853</v>
       </c>
       <c r="AF10" t="n">
         <v>1.796106590892249e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.116666666666665</v>
       </c>
       <c r="AH10" t="n">
-        <v>198693.4843364193</v>
+        <v>246853.5411089038</v>
       </c>
     </row>
   </sheetData>
@@ -26165,28 +26165,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.3080433519977</v>
+        <v>199.4860594984199</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.8168754525544</v>
+        <v>272.945627309435</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.8420719006563</v>
+        <v>246.8960797206964</v>
       </c>
       <c r="AD2" t="n">
-        <v>145308.0433519977</v>
+        <v>199486.0594984199</v>
       </c>
       <c r="AE2" t="n">
-        <v>198816.8754525544</v>
+        <v>272945.627309435</v>
       </c>
       <c r="AF2" t="n">
         <v>3.367098587987595e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="AH2" t="n">
-        <v>179842.0719006563</v>
+        <v>246896.0797206964</v>
       </c>
     </row>
   </sheetData>
@@ -26462,28 +26462,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.0926398862114</v>
+        <v>288.7181326603778</v>
       </c>
       <c r="AB2" t="n">
-        <v>317.5593890967913</v>
+        <v>395.0368864509863</v>
       </c>
       <c r="AC2" t="n">
-        <v>287.2519666988896</v>
+        <v>357.3351204458556</v>
       </c>
       <c r="AD2" t="n">
-        <v>232092.6398862114</v>
+        <v>288718.1326603778</v>
       </c>
       <c r="AE2" t="n">
-        <v>317559.3890967913</v>
+        <v>395036.8864509863</v>
       </c>
       <c r="AF2" t="n">
         <v>1.6589833385605e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.05416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>287251.9666988896</v>
+        <v>357335.1204458557</v>
       </c>
     </row>
     <row r="3">
@@ -26568,28 +26568,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.3557634225274</v>
+        <v>210.503982917395</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.5105622622566</v>
+        <v>288.0208362077449</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.1790278990555</v>
+        <v>260.532531839945</v>
       </c>
       <c r="AD3" t="n">
-        <v>163355.7634225274</v>
+        <v>210503.982917395</v>
       </c>
       <c r="AE3" t="n">
-        <v>223510.5622622566</v>
+        <v>288020.8362077449</v>
       </c>
       <c r="AF3" t="n">
         <v>2.156356045941175e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.04583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>202179.0278990555</v>
+        <v>260532.531839945</v>
       </c>
     </row>
     <row r="4">
@@ -26674,28 +26674,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>144.0615796790611</v>
+        <v>191.1756337551479</v>
       </c>
       <c r="AB4" t="n">
-        <v>197.1114088651471</v>
+        <v>261.5749361773876</v>
       </c>
       <c r="AC4" t="n">
-        <v>178.2993726507132</v>
+        <v>236.6105913914228</v>
       </c>
       <c r="AD4" t="n">
-        <v>144061.5796790611</v>
+        <v>191175.6337551479</v>
       </c>
       <c r="AE4" t="n">
-        <v>197111.4088651471</v>
+        <v>261574.9361773876</v>
       </c>
       <c r="AF4" t="n">
         <v>2.318282883680598e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.341666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>178299.3726507132</v>
+        <v>236610.5913914228</v>
       </c>
     </row>
     <row r="5">
@@ -26780,28 +26780,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>143.1406877664812</v>
+        <v>190.254741842568</v>
       </c>
       <c r="AB5" t="n">
-        <v>195.8514039234721</v>
+        <v>260.3149312357125</v>
       </c>
       <c r="AC5" t="n">
-        <v>177.1596208122431</v>
+        <v>235.4708395529527</v>
       </c>
       <c r="AD5" t="n">
-        <v>143140.6877664812</v>
+        <v>190254.741842568</v>
       </c>
       <c r="AE5" t="n">
-        <v>195851.4039234721</v>
+        <v>260314.9312357126</v>
       </c>
       <c r="AF5" t="n">
         <v>2.336840790927139e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.266666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>177159.6208122431</v>
+        <v>235470.8395529527</v>
       </c>
     </row>
   </sheetData>
@@ -27077,28 +27077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>299.9401991211926</v>
+        <v>366.7916803761244</v>
       </c>
       <c r="AB2" t="n">
-        <v>410.3914128653042</v>
+        <v>501.860558797505</v>
       </c>
       <c r="AC2" t="n">
-        <v>371.2242324094042</v>
+        <v>453.9636914315884</v>
       </c>
       <c r="AD2" t="n">
-        <v>299940.1991211926</v>
+        <v>366791.6803761243</v>
       </c>
       <c r="AE2" t="n">
-        <v>410391.4128653042</v>
+        <v>501860.558797505</v>
       </c>
       <c r="AF2" t="n">
         <v>1.277490974460398e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.09583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>371224.2324094042</v>
+        <v>453963.6914315884</v>
       </c>
     </row>
     <row r="3">
@@ -27183,28 +27183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.0854693306754</v>
+        <v>240.380991606627</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.5056162989652</v>
+        <v>328.8998775769294</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.5977118663054</v>
+        <v>297.5101348749625</v>
       </c>
       <c r="AD3" t="n">
-        <v>183085.4693306754</v>
+        <v>240380.991606627</v>
       </c>
       <c r="AE3" t="n">
-        <v>250505.6162989651</v>
+        <v>328899.8775769294</v>
       </c>
       <c r="AF3" t="n">
         <v>1.791931160342237e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.7625</v>
       </c>
       <c r="AH3" t="n">
-        <v>226597.7118663054</v>
+        <v>297510.1348749625</v>
       </c>
     </row>
     <row r="4">
@@ -27289,28 +27289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.39095937992</v>
+        <v>207.1656991255303</v>
       </c>
       <c r="AB4" t="n">
-        <v>218.0857424563544</v>
+        <v>283.4532490490311</v>
       </c>
       <c r="AC4" t="n">
-        <v>197.2719452816443</v>
+        <v>256.4008687890085</v>
       </c>
       <c r="AD4" t="n">
-        <v>159390.95937992</v>
+        <v>207165.6991255303</v>
       </c>
       <c r="AE4" t="n">
-        <v>218085.7424563544</v>
+        <v>283453.2490490311</v>
       </c>
       <c r="AF4" t="n">
         <v>1.970971527355999e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.783333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>197271.9452816444</v>
+        <v>256400.8687890086</v>
       </c>
     </row>
     <row r="5">
@@ -27395,28 +27395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>152.2764474661574</v>
+        <v>199.9497019852825</v>
       </c>
       <c r="AB5" t="n">
-        <v>208.3513533858355</v>
+        <v>273.5800034144229</v>
       </c>
       <c r="AC5" t="n">
-        <v>188.4665926417118</v>
+        <v>247.469911860577</v>
       </c>
       <c r="AD5" t="n">
-        <v>152276.4474661574</v>
+        <v>199949.7019852825</v>
       </c>
       <c r="AE5" t="n">
-        <v>208351.3533858355</v>
+        <v>273580.003414423</v>
       </c>
       <c r="AF5" t="n">
         <v>2.064796455984979e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.341666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>188466.5926417118</v>
+        <v>247469.911860577</v>
       </c>
     </row>
     <row r="6">
@@ -27501,28 +27501,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>149.0780891890065</v>
+        <v>187.2647265965711</v>
       </c>
       <c r="AB6" t="n">
-        <v>203.9752184894311</v>
+        <v>256.2238604659788</v>
       </c>
       <c r="AC6" t="n">
-        <v>184.5081099178749</v>
+        <v>231.7702148356271</v>
       </c>
       <c r="AD6" t="n">
-        <v>149078.0891890065</v>
+        <v>187264.7265965711</v>
       </c>
       <c r="AE6" t="n">
-        <v>203975.2184894311</v>
+        <v>256223.8604659787</v>
       </c>
       <c r="AF6" t="n">
         <v>2.104603776468908e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.1625</v>
       </c>
       <c r="AH6" t="n">
-        <v>184508.1099178749</v>
+        <v>231770.2148356272</v>
       </c>
     </row>
     <row r="7">
@@ -27607,28 +27607,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>149.3399497608734</v>
+        <v>187.526587168438</v>
       </c>
       <c r="AB7" t="n">
-        <v>204.3335076763323</v>
+        <v>256.5821496528799</v>
       </c>
       <c r="AC7" t="n">
-        <v>184.8322044876404</v>
+        <v>232.0943094053926</v>
       </c>
       <c r="AD7" t="n">
-        <v>149339.9497608734</v>
+        <v>187526.587168438</v>
       </c>
       <c r="AE7" t="n">
-        <v>204333.5076763323</v>
+        <v>256582.1496528799</v>
       </c>
       <c r="AF7" t="n">
         <v>2.104881501960656e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.1625</v>
       </c>
       <c r="AH7" t="n">
-        <v>184832.2044876404</v>
+        <v>232094.3094053926</v>
       </c>
     </row>
   </sheetData>
